--- a/DMS/App_Data/GiftCertificates.xlsx
+++ b/DMS/App_Data/GiftCertificates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>GCNumber</t>
   </si>
@@ -795,6 +795,36 @@
   </si>
   <si>
     <t>C:\Csharp\C# - DMS\DMS\App_Data\QRCodeImages\422E364F14CF.jpg</t>
+  </si>
+  <si>
+    <t>0D66D510EB17</t>
+  </si>
+  <si>
+    <t>zxcvxv</t>
+  </si>
+  <si>
+    <t>fdbdfb</t>
+  </si>
+  <si>
+    <t>fdbdbdf</t>
+  </si>
+  <si>
+    <t>2c69d9d1fa8dcb8b0f8c35c5Hotel1</t>
+  </si>
+  <si>
+    <t>8247Q6N8</t>
+  </si>
+  <si>
+    <t>C:\Csharp\C# - DMS\DMS\App_Data\QRCodeImages\0D66D510EB17.jpg</t>
+  </si>
+  <si>
+    <t>FC6664D4D3DC</t>
+  </si>
+  <si>
+    <t>e7d3d8f61c3a375d402a7785Hotel1</t>
+  </si>
+  <si>
+    <t>C:\Csharp\C# - DMS\DMS\App_Data\QRCodeImages\FC6664D4D3DC.jpg</t>
   </si>
 </sst>
 </file>
@@ -2633,13 +2663,79 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" descr="" name="QRCode_0D66D510EB17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" descr="" name="QRCode_FC6664D4D3DC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5247,6 +5343,100 @@
         <v>260</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="0">
+        <v>2</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="0">
+        <v>2</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
